--- a/US/data/CBS/NFIB/Amount of Capital Expenditures Made.xlsx
+++ b/US/data/CBS/NFIB/Amount of Capital Expenditures Made.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20386"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FA812CA-DB4A-4E7E-B81F-2C25922109F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{592AFBBE-EB1A-4A9F-BA71-7D3B02ACD02C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13425" yWindow="3600" windowWidth="14145" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="18195" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="98">
   <si>
     <t>Date</t>
   </si>
@@ -37,109 +37,283 @@
     <t>Percent</t>
   </si>
   <si>
+    <t>2022/1/1</t>
+  </si>
+  <si>
+    <t>Q21A</t>
+  </si>
+  <si>
+    <t>0. No Reply</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>1. under $1,000</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2. $1,000-4,999</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>6.6</t>
+  </si>
+  <si>
+    <t>3. $5,000- 9,999</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>4. $10,000- 19,999</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>5. $20,000- 49,999</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>9.2</t>
+  </si>
+  <si>
+    <t>6. $50,000 - 99,999</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>11.2</t>
+  </si>
+  <si>
+    <t>7. $100,000- 499,999</t>
+  </si>
+  <si>
+    <t>8. $500,000 - 999,999</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>9. $1 million or more</t>
+  </si>
+  <si>
+    <t>10. N/A</t>
+  </si>
+  <si>
+    <t>634</t>
+  </si>
+  <si>
+    <t>42.2</t>
+  </si>
+  <si>
     <t>2022/2/1</t>
   </si>
   <si>
-    <t>Q21A</t>
-  </si>
-  <si>
-    <t>0. No Reply</t>
-  </si>
-  <si>
     <t>16</t>
   </si>
   <si>
     <t>2.4</t>
   </si>
   <si>
-    <t>1. under $1,000</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
     <t>1.4</t>
   </si>
   <si>
-    <t>2. $1,000-4,999</t>
-  </si>
-  <si>
     <t>46</t>
   </si>
   <si>
     <t>6.9</t>
   </si>
   <si>
-    <t>3. $5,000- 9,999</t>
-  </si>
-  <si>
     <t>35</t>
   </si>
   <si>
     <t>5.3</t>
   </si>
   <si>
-    <t>4. $10,000- 19,999</t>
-  </si>
-  <si>
     <t>40</t>
   </si>
   <si>
     <t>6.0</t>
   </si>
   <si>
-    <t>5. $20,000- 49,999</t>
-  </si>
-  <si>
     <t>58</t>
   </si>
   <si>
     <t>8.7</t>
   </si>
   <si>
-    <t>6. $50,000 - 99,999</t>
-  </si>
-  <si>
     <t>71</t>
   </si>
   <si>
     <t>10.7</t>
   </si>
   <si>
-    <t>7. $100,000- 499,999</t>
-  </si>
-  <si>
     <t>75</t>
   </si>
   <si>
     <t>11.3</t>
   </si>
   <si>
-    <t>8. $500,000 - 999,999</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
     <t>2.0</t>
   </si>
   <si>
-    <t>9. $1 million or more</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
     <t>2.9</t>
   </si>
   <si>
-    <t>10. N/A</t>
-  </si>
-  <si>
     <t>283</t>
   </si>
   <si>
     <t>42.6</t>
+  </si>
+  <si>
+    <t>2022/3/1</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>6.8</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>11.4</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>10.9</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>44.0</t>
+  </si>
+  <si>
+    <t>2022/4/1</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>9.9</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>11.5</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>10.8</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>662</t>
+  </si>
+  <si>
+    <t>45.4</t>
   </si>
 </sst>
 </file>
@@ -539,7 +713,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -701,10 +875,10 @@
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -715,13 +889,13 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
         <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -732,13 +906,13 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -749,19 +923,579 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
         <v>37</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E13" t="s">
         <v>38</v>
       </c>
-      <c r="E12" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
         <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E45" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/US/data/CBS/NFIB/Amount of Capital Expenditures Made.xlsx
+++ b/US/data/CBS/NFIB/Amount of Capital Expenditures Made.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{592AFBBE-EB1A-4A9F-BA71-7D3B02ACD02C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D44BA46E-C025-44C1-BA66-C4FF9D85108D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="18195" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="115">
   <si>
     <t>Date</t>
   </si>
@@ -314,6 +314,57 @@
   </si>
   <si>
     <t>45.4</t>
+  </si>
+  <si>
+    <t>2022/5/1</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>7.8</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>8.6</t>
+  </si>
+  <si>
+    <t>12.2</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>47.4</t>
   </si>
 </sst>
 </file>
@@ -713,7 +764,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1493,9 +1544,197 @@
         <v>97</v>
       </c>
     </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" t="s">
+        <v>99</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s">
+        <v>100</v>
+      </c>
+      <c r="E47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" t="s">
+        <v>101</v>
+      </c>
+      <c r="E48" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" t="s">
+        <v>104</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" t="s">
+        <v>105</v>
+      </c>
+      <c r="E51" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" t="s">
+        <v>107</v>
+      </c>
+      <c r="E52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" t="s">
+        <v>60</v>
+      </c>
+      <c r="E54" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>98</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" t="s">
+        <v>113</v>
+      </c>
+      <c r="E56" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>